--- a/NEET_2024_Excel/Individual_Excel/222401.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/222401.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E601"/>
+  <dimension ref="A1:E473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,10 +930,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>507</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>382</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>317</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>318</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>182</v>
+        <v>655</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>359</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>325</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>327</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>339</v>
+        <v>570</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>160</v>
+        <v>382</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>655</v>
+        <v>413</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1899,10 +1899,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1950,10 +1950,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>331</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>375</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>333</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>334</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>337</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>123</v>
+        <v>299</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>339</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>342</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>343</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>344</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>347</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>516</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>351</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>524</v>
+        <v>252</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>354</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>524</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>356</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>357</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>358</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>359</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>570</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2664,10 +2664,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2902,10 +2902,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>347</v>
+        <v>49</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>363</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>334</v>
+        <v>97</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>39</v>
+        <v>603</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3157,10 +3157,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>372</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>374</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>279</v>
+        <v>118</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>378</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>92</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>506</v>
+        <v>361</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>414</v>
+        <v>111</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3361,10 +3361,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3395,10 +3395,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3582,10 +3582,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>299</v>
+        <v>396</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3616,10 +3616,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>280</v>
+        <v>93</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>387</v>
+        <v>174</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>411</v>
+        <v>126</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>110</v>
+        <v>425</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3922,10 +3922,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
         <v>117</v>
-      </c>
-      <c r="B208">
-        <v>66</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3973,10 +3973,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>392</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4024,10 +4024,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>393</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>429</v>
+        <v>270</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>395</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>396</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>397</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4109,10 +4109,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>398</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>399</v>
+        <v>219</v>
       </c>
       <c r="B220">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>287</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>401</v>
+        <v>221</v>
       </c>
       <c r="B222">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4177,10 +4177,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>403</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4211,10 +4211,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>404</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>289</v>
+        <v>105</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>407</v>
+        <v>227</v>
       </c>
       <c r="B228">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>408</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>246</v>
+        <v>630</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>409</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="B231">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="B232">
-        <v>219</v>
+        <v>587</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>412</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>69</v>
+        <v>610</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4364,10 +4364,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>413</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>55</v>
+        <v>422</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>414</v>
+        <v>234</v>
       </c>
       <c r="B235">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4398,10 +4398,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>415</v>
+        <v>235</v>
       </c>
       <c r="B236">
-        <v>433</v>
+        <v>89</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4415,10 +4415,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="B237">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="B238">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>418</v>
+        <v>238</v>
       </c>
       <c r="B239">
-        <v>193</v>
+        <v>573</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4466,10 +4466,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>419</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>80</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="B242">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="B244">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="B245">
-        <v>58</v>
+        <v>515</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B246">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B247">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="B248">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4619,10 +4619,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4636,10 +4636,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B250">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4653,10 +4653,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="B251">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="B252">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B253">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4704,10 +4704,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="B254">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="B255">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4738,10 +4738,10 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="B256">
-        <v>248</v>
+        <v>566</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4755,10 +4755,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="B257">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="B258">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4823,10 +4823,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="B261">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4840,10 +4840,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="B262">
-        <v>63</v>
+        <v>401</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="B264">
-        <v>355</v>
+        <v>91</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4891,10 +4891,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="B267">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="B268">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>112</v>
+        <v>444</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4976,10 +4976,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="B270">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="B271">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272">
-        <v>421</v>
+        <v>271</v>
       </c>
       <c r="B272">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5027,10 +5027,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="B273">
-        <v>447</v>
+        <v>99</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <v>423</v>
+        <v>273</v>
       </c>
       <c r="B274">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="B275">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="B276">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277">
-        <v>426</v>
+        <v>276</v>
       </c>
       <c r="B277">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5129,10 +5129,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279">
-        <v>428</v>
+        <v>278</v>
       </c>
       <c r="B279">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280">
-        <v>429</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5163,10 +5163,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="B281">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282">
-        <v>431</v>
+        <v>281</v>
       </c>
       <c r="B282">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283">
-        <v>432</v>
+        <v>282</v>
       </c>
       <c r="B283">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5214,10 +5214,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="B284">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="B285">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="B286">
-        <v>-23</v>
+        <v>292</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="B287">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="B288">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="B289">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290">
-        <v>439</v>
+        <v>289</v>
       </c>
       <c r="B290">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="B291">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292">
-        <v>441</v>
+        <v>291</v>
       </c>
       <c r="B292">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="B293">
-        <v>527</v>
+        <v>73</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294">
-        <v>443</v>
+        <v>293</v>
       </c>
       <c r="B294">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5401,10 +5401,10 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295">
-        <v>444</v>
+        <v>294</v>
       </c>
       <c r="B295">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5418,10 +5418,10 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296">
-        <v>445</v>
+        <v>295</v>
       </c>
       <c r="B296">
-        <v>128</v>
+        <v>476</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297">
-        <v>446</v>
+        <v>296</v>
       </c>
       <c r="B297">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="B298">
-        <v>715</v>
+        <v>171</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299">
-        <v>448</v>
+        <v>298</v>
       </c>
       <c r="B299">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5486,10 +5486,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="B300">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="B301">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5520,10 +5520,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="B302">
-        <v>49</v>
+        <v>507</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B303">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="B304">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="B305">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5588,10 +5588,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
         <v>155</v>
-      </c>
-      <c r="B306">
-        <v>105</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5605,10 +5605,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="B307">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="B308">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="B309">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310">
-        <v>159</v>
+        <v>309</v>
       </c>
       <c r="B310">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="B311">
-        <v>603</v>
+        <v>196</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="B312">
-        <v>520</v>
+        <v>382</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="B313">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="B314">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="B315">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="B316">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="B317">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="B318">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="B319">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5826,10 +5826,10 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="B320">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="B321">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5860,10 +5860,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="B322">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="B323">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5894,10 +5894,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="B324">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="B325">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="B326">
-        <v>306</v>
+        <v>121</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5945,10 +5945,10 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="B327">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="B328">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="B329">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="B330">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="B331">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6030,10 +6030,10 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="B332">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6047,10 +6047,10 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="B333">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="B334">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="B335">
-        <v>405</v>
+        <v>226</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6098,10 +6098,10 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="B336">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6115,10 +6115,10 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="B337">
-        <v>509</v>
+        <v>153</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="B338">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="B339">
-        <v>61</v>
+        <v>351</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="B340">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="B341">
-        <v>448</v>
+        <v>102</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="B342">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6217,10 +6217,10 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="B343">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6234,10 +6234,10 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="B344">
-        <v>529</v>
+        <v>58</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6251,10 +6251,10 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="B345">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="B346">
-        <v>476</v>
+        <v>159</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="B347">
-        <v>536</v>
+        <v>25</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6302,10 +6302,10 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="B348">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="B349">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="B350">
-        <v>66</v>
+        <v>516</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6353,10 +6353,10 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="B351">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="B352">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="B353">
-        <v>195</v>
+        <v>524</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6403,6 +6403,12 @@
       </c>
     </row>
     <row r="354" spans="1:5">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>158</v>
+      </c>
       <c r="C354" t="s">
         <v>5</v>
       </c>
@@ -6414,6 +6420,12 @@
       </c>
     </row>
     <row r="355" spans="1:5">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>524</v>
+      </c>
       <c r="C355" t="s">
         <v>5</v>
       </c>
@@ -6425,6 +6437,12 @@
       </c>
     </row>
     <row r="356" spans="1:5">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>245</v>
+      </c>
       <c r="C356" t="s">
         <v>5</v>
       </c>
@@ -6436,6 +6454,12 @@
       </c>
     </row>
     <row r="357" spans="1:5">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>70</v>
+      </c>
       <c r="C357" t="s">
         <v>5</v>
       </c>
@@ -6447,6 +6471,12 @@
       </c>
     </row>
     <row r="358" spans="1:5">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>51</v>
+      </c>
       <c r="C358" t="s">
         <v>5</v>
       </c>
@@ -6458,6 +6488,12 @@
       </c>
     </row>
     <row r="359" spans="1:5">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>60</v>
+      </c>
       <c r="C359" t="s">
         <v>5</v>
       </c>
@@ -6469,6 +6505,12 @@
       </c>
     </row>
     <row r="360" spans="1:5">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>237</v>
+      </c>
       <c r="C360" t="s">
         <v>5</v>
       </c>
@@ -6480,6 +6522,12 @@
       </c>
     </row>
     <row r="361" spans="1:5">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>208</v>
+      </c>
       <c r="C361" t="s">
         <v>5</v>
       </c>
@@ -6492,10 +6540,10 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="B362">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6509,10 +6557,10 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="B363">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6526,10 +6574,10 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="B364">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6543,10 +6591,10 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="B365">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6560,10 +6608,10 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="B366">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6577,10 +6625,10 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="B367">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6594,10 +6642,10 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>187</v>
+        <v>367</v>
       </c>
       <c r="B368">
-        <v>396</v>
+        <v>165</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6611,10 +6659,10 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="B369">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6628,10 +6676,10 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="B370">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6645,10 +6693,10 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="B371">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6662,10 +6710,10 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="B372">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6679,10 +6727,10 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="B373">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6696,10 +6744,10 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="B374">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6713,10 +6761,10 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="B375">
-        <v>58</v>
+        <v>335</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6730,10 +6778,10 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="B376">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6747,10 +6795,10 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="B377">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6764,10 +6812,10 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="B378">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6781,10 +6829,10 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="B379">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6798,10 +6846,10 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="B380">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6815,10 +6863,10 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="B381">
-        <v>354</v>
+        <v>506</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6832,10 +6880,10 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382">
-        <v>201</v>
+        <v>381</v>
       </c>
       <c r="B382">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6849,10 +6897,10 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="B383">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6866,10 +6914,10 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384">
-        <v>203</v>
+        <v>383</v>
       </c>
       <c r="B384">
-        <v>425</v>
+        <v>181</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6883,10 +6931,10 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="B385">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6900,10 +6948,10 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="B386">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6917,10 +6965,10 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="B387">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6934,10 +6982,10 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388">
-        <v>207</v>
+        <v>387</v>
       </c>
       <c r="B388">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6951,10 +6999,10 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389">
-        <v>208</v>
+        <v>388</v>
       </c>
       <c r="B389">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6968,10 +7016,10 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390">
-        <v>209</v>
+        <v>389</v>
       </c>
       <c r="B390">
-        <v>477</v>
+        <v>296</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6985,10 +7033,10 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="B391">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7001,6 +7049,12 @@
       </c>
     </row>
     <row r="392" spans="1:5">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>117</v>
+      </c>
       <c r="C392" t="s">
         <v>5</v>
       </c>
@@ -7012,6 +7066,12 @@
       </c>
     </row>
     <row r="393" spans="1:5">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>109</v>
+      </c>
       <c r="C393" t="s">
         <v>5</v>
       </c>
@@ -7023,6 +7083,12 @@
       </c>
     </row>
     <row r="394" spans="1:5">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>429</v>
+      </c>
       <c r="C394" t="s">
         <v>5</v>
       </c>
@@ -7034,6 +7100,12 @@
       </c>
     </row>
     <row r="395" spans="1:5">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>373</v>
+      </c>
       <c r="C395" t="s">
         <v>5</v>
       </c>
@@ -7045,6 +7117,12 @@
       </c>
     </row>
     <row r="396" spans="1:5">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>125</v>
+      </c>
       <c r="C396" t="s">
         <v>5</v>
       </c>
@@ -7056,6 +7134,12 @@
       </c>
     </row>
     <row r="397" spans="1:5">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>280</v>
+      </c>
       <c r="C397" t="s">
         <v>5</v>
       </c>
@@ -7067,6 +7151,12 @@
       </c>
     </row>
     <row r="398" spans="1:5">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>130</v>
+      </c>
       <c r="C398" t="s">
         <v>5</v>
       </c>
@@ -7078,6 +7168,12 @@
       </c>
     </row>
     <row r="399" spans="1:5">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>109</v>
+      </c>
       <c r="C399" t="s">
         <v>5</v>
       </c>
@@ -7089,6 +7185,12 @@
       </c>
     </row>
     <row r="400" spans="1:5">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>134</v>
+      </c>
       <c r="C400" t="s">
         <v>5</v>
       </c>
@@ -7099,7 +7201,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="3:5">
+    <row r="401" spans="1:5">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
       <c r="C401" t="s">
         <v>5</v>
       </c>
@@ -7110,7 +7218,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="3:5">
+    <row r="402" spans="1:5">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>341</v>
+      </c>
       <c r="C402" t="s">
         <v>5</v>
       </c>
@@ -7121,7 +7235,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="3:5">
+    <row r="403" spans="1:5">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>88</v>
+      </c>
       <c r="C403" t="s">
         <v>5</v>
       </c>
@@ -7132,7 +7252,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="3:5">
+    <row r="404" spans="1:5">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>97</v>
+      </c>
       <c r="C404" t="s">
         <v>5</v>
       </c>
@@ -7143,7 +7269,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="3:5">
+    <row r="405" spans="1:5">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>10</v>
+      </c>
       <c r="C405" t="s">
         <v>5</v>
       </c>
@@ -7154,7 +7286,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="3:5">
+    <row r="406" spans="1:5">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>193</v>
+      </c>
       <c r="C406" t="s">
         <v>5</v>
       </c>
@@ -7165,7 +7303,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="3:5">
+    <row r="407" spans="1:5">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>289</v>
+      </c>
       <c r="C407" t="s">
         <v>5</v>
       </c>
@@ -7176,7 +7320,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="3:5">
+    <row r="408" spans="1:5">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>85</v>
+      </c>
       <c r="C408" t="s">
         <v>5</v>
       </c>
@@ -7187,7 +7337,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="3:5">
+    <row r="409" spans="1:5">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>246</v>
+      </c>
       <c r="C409" t="s">
         <v>5</v>
       </c>
@@ -7198,7 +7354,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="3:5">
+    <row r="410" spans="1:5">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>192</v>
+      </c>
       <c r="C410" t="s">
         <v>5</v>
       </c>
@@ -7209,7 +7371,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="3:5">
+    <row r="411" spans="1:5">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>127</v>
+      </c>
       <c r="C411" t="s">
         <v>5</v>
       </c>
@@ -7220,7 +7388,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="3:5">
+    <row r="412" spans="1:5">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>219</v>
+      </c>
       <c r="C412" t="s">
         <v>5</v>
       </c>
@@ -7231,7 +7405,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="3:5">
+    <row r="413" spans="1:5">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>69</v>
+      </c>
       <c r="C413" t="s">
         <v>5</v>
       </c>
@@ -7242,7 +7422,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="3:5">
+    <row r="414" spans="1:5">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>55</v>
+      </c>
       <c r="C414" t="s">
         <v>5</v>
       </c>
@@ -7253,7 +7439,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="3:5">
+    <row r="415" spans="1:5">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>30</v>
+      </c>
       <c r="C415" t="s">
         <v>5</v>
       </c>
@@ -7264,7 +7456,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="3:5">
+    <row r="416" spans="1:5">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>433</v>
+      </c>
       <c r="C416" t="s">
         <v>5</v>
       </c>
@@ -7276,6 +7474,12 @@
       </c>
     </row>
     <row r="417" spans="1:5">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>73</v>
+      </c>
       <c r="C417" t="s">
         <v>5</v>
       </c>
@@ -7287,6 +7491,12 @@
       </c>
     </row>
     <row r="418" spans="1:5">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>370</v>
+      </c>
       <c r="C418" t="s">
         <v>5</v>
       </c>
@@ -7298,6 +7508,12 @@
       </c>
     </row>
     <row r="419" spans="1:5">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>193</v>
+      </c>
       <c r="C419" t="s">
         <v>5</v>
       </c>
@@ -7309,6 +7525,12 @@
       </c>
     </row>
     <row r="420" spans="1:5">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>136</v>
+      </c>
       <c r="C420" t="s">
         <v>5</v>
       </c>
@@ -7320,6 +7542,12 @@
       </c>
     </row>
     <row r="421" spans="1:5">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>80</v>
+      </c>
       <c r="C421" t="s">
         <v>5</v>
       </c>
@@ -7332,10 +7560,10 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="B422">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7349,10 +7577,10 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="B423">
-        <v>156</v>
+        <v>447</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7366,10 +7594,10 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424">
-        <v>213</v>
+        <v>423</v>
       </c>
       <c r="B424">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7383,10 +7611,10 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425">
-        <v>214</v>
+        <v>424</v>
       </c>
       <c r="B425">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7400,10 +7628,10 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="B426">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7417,10 +7645,10 @@
     </row>
     <row r="427" spans="1:5">
       <c r="A427">
-        <v>216</v>
+        <v>426</v>
       </c>
       <c r="B427">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7434,10 +7662,10 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428">
-        <v>217</v>
+        <v>427</v>
       </c>
       <c r="B428">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7451,10 +7679,10 @@
     </row>
     <row r="429" spans="1:5">
       <c r="A429">
-        <v>218</v>
+        <v>428</v>
       </c>
       <c r="B429">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7468,10 +7696,10 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430">
-        <v>219</v>
+        <v>429</v>
       </c>
       <c r="B430">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7485,10 +7713,10 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431">
-        <v>220</v>
+        <v>430</v>
       </c>
       <c r="B431">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7502,10 +7730,10 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432">
-        <v>221</v>
+        <v>431</v>
       </c>
       <c r="B432">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7519,10 +7747,10 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433">
-        <v>222</v>
+        <v>432</v>
       </c>
       <c r="B433">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7536,10 +7764,10 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434">
-        <v>223</v>
+        <v>433</v>
       </c>
       <c r="B434">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7553,10 +7781,10 @@
     </row>
     <row r="435" spans="1:5">
       <c r="A435">
-        <v>224</v>
+        <v>434</v>
       </c>
       <c r="B435">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7570,10 +7798,10 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436">
-        <v>225</v>
+        <v>435</v>
       </c>
       <c r="B436">
-        <v>105</v>
+        <v>-23</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7587,10 +7815,10 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="B437">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7604,10 +7832,10 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438">
-        <v>227</v>
+        <v>437</v>
       </c>
       <c r="B438">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7621,10 +7849,10 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439">
-        <v>228</v>
+        <v>438</v>
       </c>
       <c r="B439">
-        <v>630</v>
+        <v>40</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7638,10 +7866,10 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440">
-        <v>229</v>
+        <v>439</v>
       </c>
       <c r="B440">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7655,10 +7883,10 @@
     </row>
     <row r="441" spans="1:5">
       <c r="A441">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="B441">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7672,10 +7900,10 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442">
-        <v>231</v>
+        <v>441</v>
       </c>
       <c r="B442">
-        <v>587</v>
+        <v>273</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7689,10 +7917,10 @@
     </row>
     <row r="443" spans="1:5">
       <c r="A443">
-        <v>232</v>
+        <v>442</v>
       </c>
       <c r="B443">
-        <v>610</v>
+        <v>527</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7706,10 +7934,10 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444">
-        <v>233</v>
+        <v>443</v>
       </c>
       <c r="B444">
-        <v>422</v>
+        <v>61</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7723,10 +7951,10 @@
     </row>
     <row r="445" spans="1:5">
       <c r="A445">
-        <v>234</v>
+        <v>444</v>
       </c>
       <c r="B445">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7740,10 +7968,10 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="B446">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7757,10 +7985,10 @@
     </row>
     <row r="447" spans="1:5">
       <c r="A447">
-        <v>236</v>
+        <v>446</v>
       </c>
       <c r="B447">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7774,10 +8002,10 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448">
-        <v>237</v>
+        <v>447</v>
       </c>
       <c r="B448">
-        <v>287</v>
+        <v>715</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7791,10 +8019,10 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="B449">
-        <v>573</v>
+        <v>109</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7808,10 +8036,10 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450">
-        <v>239</v>
+        <v>449</v>
       </c>
       <c r="B450">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7825,10 +8053,10 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="B451">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7841,6 +8069,12 @@
       </c>
     </row>
     <row r="452" spans="1:5">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>166</v>
+      </c>
       <c r="C452" t="s">
         <v>5</v>
       </c>
@@ -7852,6 +8086,12 @@
       </c>
     </row>
     <row r="453" spans="1:5">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>107</v>
+      </c>
       <c r="C453" t="s">
         <v>5</v>
       </c>
@@ -7863,6 +8103,12 @@
       </c>
     </row>
     <row r="454" spans="1:5">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>204</v>
+      </c>
       <c r="C454" t="s">
         <v>5</v>
       </c>
@@ -7874,6 +8120,12 @@
       </c>
     </row>
     <row r="455" spans="1:5">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>405</v>
+      </c>
       <c r="C455" t="s">
         <v>5</v>
       </c>
@@ -7885,6 +8137,12 @@
       </c>
     </row>
     <row r="456" spans="1:5">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>194</v>
+      </c>
       <c r="C456" t="s">
         <v>5</v>
       </c>
@@ -7896,6 +8154,12 @@
       </c>
     </row>
     <row r="457" spans="1:5">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>509</v>
+      </c>
       <c r="C457" t="s">
         <v>5</v>
       </c>
@@ -7907,6 +8171,12 @@
       </c>
     </row>
     <row r="458" spans="1:5">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>270</v>
+      </c>
       <c r="C458" t="s">
         <v>5</v>
       </c>
@@ -7918,6 +8188,12 @@
       </c>
     </row>
     <row r="459" spans="1:5">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>61</v>
+      </c>
       <c r="C459" t="s">
         <v>5</v>
       </c>
@@ -7929,6 +8205,12 @@
       </c>
     </row>
     <row r="460" spans="1:5">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>174</v>
+      </c>
       <c r="C460" t="s">
         <v>5</v>
       </c>
@@ -7940,6 +8222,12 @@
       </c>
     </row>
     <row r="461" spans="1:5">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>448</v>
+      </c>
       <c r="C461" t="s">
         <v>5</v>
       </c>
@@ -7951,6 +8239,12 @@
       </c>
     </row>
     <row r="462" spans="1:5">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>231</v>
+      </c>
       <c r="C462" t="s">
         <v>5</v>
       </c>
@@ -7962,6 +8256,12 @@
       </c>
     </row>
     <row r="463" spans="1:5">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>261</v>
+      </c>
       <c r="C463" t="s">
         <v>5</v>
       </c>
@@ -7973,6 +8273,12 @@
       </c>
     </row>
     <row r="464" spans="1:5">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>529</v>
+      </c>
       <c r="C464" t="s">
         <v>5</v>
       </c>
@@ -7983,7 +8289,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="3:5">
+    <row r="465" spans="1:5">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>117</v>
+      </c>
       <c r="C465" t="s">
         <v>5</v>
       </c>
@@ -7994,7 +8306,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="3:5">
+    <row r="466" spans="1:5">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>476</v>
+      </c>
       <c r="C466" t="s">
         <v>5</v>
       </c>
@@ -8005,7 +8323,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="3:5">
+    <row r="467" spans="1:5">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>536</v>
+      </c>
       <c r="C467" t="s">
         <v>5</v>
       </c>
@@ -8016,7 +8340,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="3:5">
+    <row r="468" spans="1:5">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>110</v>
+      </c>
       <c r="C468" t="s">
         <v>5</v>
       </c>
@@ -8027,7 +8357,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="3:5">
+    <row r="469" spans="1:5">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>44</v>
+      </c>
       <c r="C469" t="s">
         <v>5</v>
       </c>
@@ -8038,7 +8374,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="3:5">
+    <row r="470" spans="1:5">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>66</v>
+      </c>
       <c r="C470" t="s">
         <v>5</v>
       </c>
@@ -8049,7 +8391,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="3:5">
+    <row r="471" spans="1:5">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>198</v>
+      </c>
       <c r="C471" t="s">
         <v>5</v>
       </c>
@@ -8060,7 +8408,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="3:5">
+    <row r="472" spans="1:5">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>394</v>
+      </c>
       <c r="C472" t="s">
         <v>5</v>
       </c>
@@ -8071,7 +8425,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="3:5">
+    <row r="473" spans="1:5">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>195</v>
+      </c>
       <c r="C473" t="s">
         <v>5</v>
       </c>
@@ -8079,1774 +8439,6 @@
         <v>6</v>
       </c>
       <c r="E473" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="474" spans="3:5">
-      <c r="C474" t="s">
-        <v>5</v>
-      </c>
-      <c r="D474" t="s">
-        <v>6</v>
-      </c>
-      <c r="E474" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="475" spans="3:5">
-      <c r="C475" t="s">
-        <v>5</v>
-      </c>
-      <c r="D475" t="s">
-        <v>6</v>
-      </c>
-      <c r="E475" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="476" spans="3:5">
-      <c r="C476" t="s">
-        <v>5</v>
-      </c>
-      <c r="D476" t="s">
-        <v>6</v>
-      </c>
-      <c r="E476" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="477" spans="3:5">
-      <c r="C477" t="s">
-        <v>5</v>
-      </c>
-      <c r="D477" t="s">
-        <v>6</v>
-      </c>
-      <c r="E477" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="478" spans="3:5">
-      <c r="C478" t="s">
-        <v>5</v>
-      </c>
-      <c r="D478" t="s">
-        <v>6</v>
-      </c>
-      <c r="E478" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="479" spans="3:5">
-      <c r="C479" t="s">
-        <v>5</v>
-      </c>
-      <c r="D479" t="s">
-        <v>6</v>
-      </c>
-      <c r="E479" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="480" spans="3:5">
-      <c r="C480" t="s">
-        <v>5</v>
-      </c>
-      <c r="D480" t="s">
-        <v>6</v>
-      </c>
-      <c r="E480" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="C481" t="s">
-        <v>5</v>
-      </c>
-      <c r="D481" t="s">
-        <v>6</v>
-      </c>
-      <c r="E481" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482">
-        <v>241</v>
-      </c>
-      <c r="B482">
-        <v>226</v>
-      </c>
-      <c r="C482" t="s">
-        <v>5</v>
-      </c>
-      <c r="D482" t="s">
-        <v>6</v>
-      </c>
-      <c r="E482" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483">
-        <v>242</v>
-      </c>
-      <c r="B483">
-        <v>381</v>
-      </c>
-      <c r="C483" t="s">
-        <v>5</v>
-      </c>
-      <c r="D483" t="s">
-        <v>6</v>
-      </c>
-      <c r="E483" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484">
-        <v>243</v>
-      </c>
-      <c r="B484">
-        <v>49</v>
-      </c>
-      <c r="C484" t="s">
-        <v>5</v>
-      </c>
-      <c r="D484" t="s">
-        <v>6</v>
-      </c>
-      <c r="E484" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485">
-        <v>244</v>
-      </c>
-      <c r="B485">
-        <v>515</v>
-      </c>
-      <c r="C485" t="s">
-        <v>5</v>
-      </c>
-      <c r="D485" t="s">
-        <v>6</v>
-      </c>
-      <c r="E485" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="A486">
-        <v>245</v>
-      </c>
-      <c r="B486">
-        <v>80</v>
-      </c>
-      <c r="C486" t="s">
-        <v>5</v>
-      </c>
-      <c r="D486" t="s">
-        <v>6</v>
-      </c>
-      <c r="E486" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="A487">
-        <v>246</v>
-      </c>
-      <c r="B487">
-        <v>189</v>
-      </c>
-      <c r="C487" t="s">
-        <v>5</v>
-      </c>
-      <c r="D487" t="s">
-        <v>6</v>
-      </c>
-      <c r="E487" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="A488">
-        <v>247</v>
-      </c>
-      <c r="B488">
-        <v>366</v>
-      </c>
-      <c r="C488" t="s">
-        <v>5</v>
-      </c>
-      <c r="D488" t="s">
-        <v>6</v>
-      </c>
-      <c r="E488" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="A489">
-        <v>248</v>
-      </c>
-      <c r="B489">
-        <v>88</v>
-      </c>
-      <c r="C489" t="s">
-        <v>5</v>
-      </c>
-      <c r="D489" t="s">
-        <v>6</v>
-      </c>
-      <c r="E489" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
-      <c r="A490">
-        <v>249</v>
-      </c>
-      <c r="B490">
-        <v>250</v>
-      </c>
-      <c r="C490" t="s">
-        <v>5</v>
-      </c>
-      <c r="D490" t="s">
-        <v>6</v>
-      </c>
-      <c r="E490" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="A491">
-        <v>250</v>
-      </c>
-      <c r="B491">
-        <v>27</v>
-      </c>
-      <c r="C491" t="s">
-        <v>5</v>
-      </c>
-      <c r="D491" t="s">
-        <v>6</v>
-      </c>
-      <c r="E491" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="A492">
-        <v>251</v>
-      </c>
-      <c r="B492">
-        <v>77</v>
-      </c>
-      <c r="C492" t="s">
-        <v>5</v>
-      </c>
-      <c r="D492" t="s">
-        <v>6</v>
-      </c>
-      <c r="E492" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
-      <c r="A493">
-        <v>252</v>
-      </c>
-      <c r="B493">
-        <v>75</v>
-      </c>
-      <c r="C493" t="s">
-        <v>5</v>
-      </c>
-      <c r="D493" t="s">
-        <v>6</v>
-      </c>
-      <c r="E493" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
-      <c r="A494">
-        <v>253</v>
-      </c>
-      <c r="B494">
-        <v>334</v>
-      </c>
-      <c r="C494" t="s">
-        <v>5</v>
-      </c>
-      <c r="D494" t="s">
-        <v>6</v>
-      </c>
-      <c r="E494" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
-      <c r="A495">
-        <v>254</v>
-      </c>
-      <c r="B495">
-        <v>238</v>
-      </c>
-      <c r="C495" t="s">
-        <v>5</v>
-      </c>
-      <c r="D495" t="s">
-        <v>6</v>
-      </c>
-      <c r="E495" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
-      <c r="A496">
-        <v>255</v>
-      </c>
-      <c r="B496">
-        <v>566</v>
-      </c>
-      <c r="C496" t="s">
-        <v>5</v>
-      </c>
-      <c r="D496" t="s">
-        <v>6</v>
-      </c>
-      <c r="E496" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="A497">
-        <v>256</v>
-      </c>
-      <c r="B497">
-        <v>76</v>
-      </c>
-      <c r="C497" t="s">
-        <v>5</v>
-      </c>
-      <c r="D497" t="s">
-        <v>6</v>
-      </c>
-      <c r="E497" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
-      <c r="A498">
-        <v>257</v>
-      </c>
-      <c r="B498">
-        <v>110</v>
-      </c>
-      <c r="C498" t="s">
-        <v>5</v>
-      </c>
-      <c r="D498" t="s">
-        <v>6</v>
-      </c>
-      <c r="E498" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
-      <c r="A499">
-        <v>258</v>
-      </c>
-      <c r="B499">
-        <v>153</v>
-      </c>
-      <c r="C499" t="s">
-        <v>5</v>
-      </c>
-      <c r="D499" t="s">
-        <v>6</v>
-      </c>
-      <c r="E499" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
-      <c r="A500">
-        <v>259</v>
-      </c>
-      <c r="B500">
-        <v>114</v>
-      </c>
-      <c r="C500" t="s">
-        <v>5</v>
-      </c>
-      <c r="D500" t="s">
-        <v>6</v>
-      </c>
-      <c r="E500" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="A501">
-        <v>260</v>
-      </c>
-      <c r="B501">
-        <v>163</v>
-      </c>
-      <c r="C501" t="s">
-        <v>5</v>
-      </c>
-      <c r="D501" t="s">
-        <v>6</v>
-      </c>
-      <c r="E501" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
-      <c r="A502">
-        <v>261</v>
-      </c>
-      <c r="B502">
-        <v>401</v>
-      </c>
-      <c r="C502" t="s">
-        <v>5</v>
-      </c>
-      <c r="D502" t="s">
-        <v>6</v>
-      </c>
-      <c r="E502" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="A503">
-        <v>262</v>
-      </c>
-      <c r="B503">
-        <v>185</v>
-      </c>
-      <c r="C503" t="s">
-        <v>5</v>
-      </c>
-      <c r="D503" t="s">
-        <v>6</v>
-      </c>
-      <c r="E503" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
-      <c r="A504">
-        <v>263</v>
-      </c>
-      <c r="B504">
-        <v>91</v>
-      </c>
-      <c r="C504" t="s">
-        <v>5</v>
-      </c>
-      <c r="D504" t="s">
-        <v>6</v>
-      </c>
-      <c r="E504" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505">
-        <v>264</v>
-      </c>
-      <c r="B505">
-        <v>198</v>
-      </c>
-      <c r="C505" t="s">
-        <v>5</v>
-      </c>
-      <c r="D505" t="s">
-        <v>6</v>
-      </c>
-      <c r="E505" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506">
-        <v>265</v>
-      </c>
-      <c r="B506">
-        <v>169</v>
-      </c>
-      <c r="C506" t="s">
-        <v>5</v>
-      </c>
-      <c r="D506" t="s">
-        <v>6</v>
-      </c>
-      <c r="E506" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
-      <c r="A507">
-        <v>266</v>
-      </c>
-      <c r="B507">
-        <v>219</v>
-      </c>
-      <c r="C507" t="s">
-        <v>5</v>
-      </c>
-      <c r="D507" t="s">
-        <v>6</v>
-      </c>
-      <c r="E507" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
-      <c r="A508">
-        <v>267</v>
-      </c>
-      <c r="B508">
-        <v>31</v>
-      </c>
-      <c r="C508" t="s">
-        <v>5</v>
-      </c>
-      <c r="D508" t="s">
-        <v>6</v>
-      </c>
-      <c r="E508" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
-      <c r="A509">
-        <v>268</v>
-      </c>
-      <c r="B509">
-        <v>444</v>
-      </c>
-      <c r="C509" t="s">
-        <v>5</v>
-      </c>
-      <c r="D509" t="s">
-        <v>6</v>
-      </c>
-      <c r="E509" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
-      <c r="A510">
-        <v>269</v>
-      </c>
-      <c r="B510">
-        <v>81</v>
-      </c>
-      <c r="C510" t="s">
-        <v>5</v>
-      </c>
-      <c r="D510" t="s">
-        <v>6</v>
-      </c>
-      <c r="E510" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="A511">
-        <v>270</v>
-      </c>
-      <c r="B511">
-        <v>244</v>
-      </c>
-      <c r="C511" t="s">
-        <v>5</v>
-      </c>
-      <c r="D511" t="s">
-        <v>6</v>
-      </c>
-      <c r="E511" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="C512" t="s">
-        <v>5</v>
-      </c>
-      <c r="D512" t="s">
-        <v>6</v>
-      </c>
-      <c r="E512" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="513" spans="3:5">
-      <c r="C513" t="s">
-        <v>5</v>
-      </c>
-      <c r="D513" t="s">
-        <v>6</v>
-      </c>
-      <c r="E513" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="514" spans="3:5">
-      <c r="C514" t="s">
-        <v>5</v>
-      </c>
-      <c r="D514" t="s">
-        <v>6</v>
-      </c>
-      <c r="E514" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="515" spans="3:5">
-      <c r="C515" t="s">
-        <v>5</v>
-      </c>
-      <c r="D515" t="s">
-        <v>6</v>
-      </c>
-      <c r="E515" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="516" spans="3:5">
-      <c r="C516" t="s">
-        <v>5</v>
-      </c>
-      <c r="D516" t="s">
-        <v>6</v>
-      </c>
-      <c r="E516" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="517" spans="3:5">
-      <c r="C517" t="s">
-        <v>5</v>
-      </c>
-      <c r="D517" t="s">
-        <v>6</v>
-      </c>
-      <c r="E517" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="518" spans="3:5">
-      <c r="C518" t="s">
-        <v>5</v>
-      </c>
-      <c r="D518" t="s">
-        <v>6</v>
-      </c>
-      <c r="E518" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="519" spans="3:5">
-      <c r="C519" t="s">
-        <v>5</v>
-      </c>
-      <c r="D519" t="s">
-        <v>6</v>
-      </c>
-      <c r="E519" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="520" spans="3:5">
-      <c r="C520" t="s">
-        <v>5</v>
-      </c>
-      <c r="D520" t="s">
-        <v>6</v>
-      </c>
-      <c r="E520" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="521" spans="3:5">
-      <c r="C521" t="s">
-        <v>5</v>
-      </c>
-      <c r="D521" t="s">
-        <v>6</v>
-      </c>
-      <c r="E521" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="522" spans="3:5">
-      <c r="C522" t="s">
-        <v>5</v>
-      </c>
-      <c r="D522" t="s">
-        <v>6</v>
-      </c>
-      <c r="E522" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="523" spans="3:5">
-      <c r="C523" t="s">
-        <v>5</v>
-      </c>
-      <c r="D523" t="s">
-        <v>6</v>
-      </c>
-      <c r="E523" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="524" spans="3:5">
-      <c r="C524" t="s">
-        <v>5</v>
-      </c>
-      <c r="D524" t="s">
-        <v>6</v>
-      </c>
-      <c r="E524" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="525" spans="3:5">
-      <c r="C525" t="s">
-        <v>5</v>
-      </c>
-      <c r="D525" t="s">
-        <v>6</v>
-      </c>
-      <c r="E525" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="526" spans="3:5">
-      <c r="C526" t="s">
-        <v>5</v>
-      </c>
-      <c r="D526" t="s">
-        <v>6</v>
-      </c>
-      <c r="E526" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5">
-      <c r="C527" t="s">
-        <v>5</v>
-      </c>
-      <c r="D527" t="s">
-        <v>6</v>
-      </c>
-      <c r="E527" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="528" spans="3:5">
-      <c r="C528" t="s">
-        <v>5</v>
-      </c>
-      <c r="D528" t="s">
-        <v>6</v>
-      </c>
-      <c r="E528" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
-      <c r="C529" t="s">
-        <v>5</v>
-      </c>
-      <c r="D529" t="s">
-        <v>6</v>
-      </c>
-      <c r="E529" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="C530" t="s">
-        <v>5</v>
-      </c>
-      <c r="D530" t="s">
-        <v>6</v>
-      </c>
-      <c r="E530" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="C531" t="s">
-        <v>5</v>
-      </c>
-      <c r="D531" t="s">
-        <v>6</v>
-      </c>
-      <c r="E531" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="C532" t="s">
-        <v>5</v>
-      </c>
-      <c r="D532" t="s">
-        <v>6</v>
-      </c>
-      <c r="E532" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
-      <c r="C533" t="s">
-        <v>5</v>
-      </c>
-      <c r="D533" t="s">
-        <v>6</v>
-      </c>
-      <c r="E533" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
-      <c r="C534" t="s">
-        <v>5</v>
-      </c>
-      <c r="D534" t="s">
-        <v>6</v>
-      </c>
-      <c r="E534" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
-      <c r="C535" t="s">
-        <v>5</v>
-      </c>
-      <c r="D535" t="s">
-        <v>6</v>
-      </c>
-      <c r="E535" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="C536" t="s">
-        <v>5</v>
-      </c>
-      <c r="D536" t="s">
-        <v>6</v>
-      </c>
-      <c r="E536" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5">
-      <c r="C537" t="s">
-        <v>5</v>
-      </c>
-      <c r="D537" t="s">
-        <v>6</v>
-      </c>
-      <c r="E537" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
-      <c r="C538" t="s">
-        <v>5</v>
-      </c>
-      <c r="D538" t="s">
-        <v>6</v>
-      </c>
-      <c r="E538" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
-      <c r="C539" t="s">
-        <v>5</v>
-      </c>
-      <c r="D539" t="s">
-        <v>6</v>
-      </c>
-      <c r="E539" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
-      <c r="C540" t="s">
-        <v>5</v>
-      </c>
-      <c r="D540" t="s">
-        <v>6</v>
-      </c>
-      <c r="E540" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="C541" t="s">
-        <v>5</v>
-      </c>
-      <c r="D541" t="s">
-        <v>6</v>
-      </c>
-      <c r="E541" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="A542">
-        <v>271</v>
-      </c>
-      <c r="B542">
-        <v>346</v>
-      </c>
-      <c r="C542" t="s">
-        <v>5</v>
-      </c>
-      <c r="D542" t="s">
-        <v>6</v>
-      </c>
-      <c r="E542" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
-      <c r="A543">
-        <v>272</v>
-      </c>
-      <c r="B543">
-        <v>99</v>
-      </c>
-      <c r="C543" t="s">
-        <v>5</v>
-      </c>
-      <c r="D543" t="s">
-        <v>6</v>
-      </c>
-      <c r="E543" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="A544">
-        <v>273</v>
-      </c>
-      <c r="B544">
-        <v>47</v>
-      </c>
-      <c r="C544" t="s">
-        <v>5</v>
-      </c>
-      <c r="D544" t="s">
-        <v>6</v>
-      </c>
-      <c r="E544" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5">
-      <c r="A545">
-        <v>274</v>
-      </c>
-      <c r="B545">
-        <v>194</v>
-      </c>
-      <c r="C545" t="s">
-        <v>5</v>
-      </c>
-      <c r="D545" t="s">
-        <v>6</v>
-      </c>
-      <c r="E545" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5">
-      <c r="A546">
-        <v>275</v>
-      </c>
-      <c r="B546">
-        <v>75</v>
-      </c>
-      <c r="C546" t="s">
-        <v>5</v>
-      </c>
-      <c r="D546" t="s">
-        <v>6</v>
-      </c>
-      <c r="E546" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
-      <c r="A547">
-        <v>276</v>
-      </c>
-      <c r="B547">
-        <v>165</v>
-      </c>
-      <c r="C547" t="s">
-        <v>5</v>
-      </c>
-      <c r="D547" t="s">
-        <v>6</v>
-      </c>
-      <c r="E547" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5">
-      <c r="A548">
-        <v>277</v>
-      </c>
-      <c r="B548">
-        <v>119</v>
-      </c>
-      <c r="C548" t="s">
-        <v>5</v>
-      </c>
-      <c r="D548" t="s">
-        <v>6</v>
-      </c>
-      <c r="E548" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
-      <c r="A549">
-        <v>278</v>
-      </c>
-      <c r="B549">
-        <v>79</v>
-      </c>
-      <c r="C549" t="s">
-        <v>5</v>
-      </c>
-      <c r="D549" t="s">
-        <v>6</v>
-      </c>
-      <c r="E549" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
-      <c r="A550">
-        <v>279</v>
-      </c>
-      <c r="B550">
-        <v>130</v>
-      </c>
-      <c r="C550" t="s">
-        <v>5</v>
-      </c>
-      <c r="D550" t="s">
-        <v>6</v>
-      </c>
-      <c r="E550" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
-      <c r="A551">
-        <v>280</v>
-      </c>
-      <c r="B551">
-        <v>417</v>
-      </c>
-      <c r="C551" t="s">
-        <v>5</v>
-      </c>
-      <c r="D551" t="s">
-        <v>6</v>
-      </c>
-      <c r="E551" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5">
-      <c r="A552">
-        <v>281</v>
-      </c>
-      <c r="B552">
-        <v>24</v>
-      </c>
-      <c r="C552" t="s">
-        <v>5</v>
-      </c>
-      <c r="D552" t="s">
-        <v>6</v>
-      </c>
-      <c r="E552" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
-      <c r="A553">
-        <v>282</v>
-      </c>
-      <c r="B553">
-        <v>290</v>
-      </c>
-      <c r="C553" t="s">
-        <v>5</v>
-      </c>
-      <c r="D553" t="s">
-        <v>6</v>
-      </c>
-      <c r="E553" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="A554">
-        <v>283</v>
-      </c>
-      <c r="B554">
-        <v>304</v>
-      </c>
-      <c r="C554" t="s">
-        <v>5</v>
-      </c>
-      <c r="D554" t="s">
-        <v>6</v>
-      </c>
-      <c r="E554" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
-      <c r="A555">
-        <v>284</v>
-      </c>
-      <c r="B555">
-        <v>328</v>
-      </c>
-      <c r="C555" t="s">
-        <v>5</v>
-      </c>
-      <c r="D555" t="s">
-        <v>6</v>
-      </c>
-      <c r="E555" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5">
-      <c r="A556">
-        <v>285</v>
-      </c>
-      <c r="B556">
-        <v>292</v>
-      </c>
-      <c r="C556" t="s">
-        <v>5</v>
-      </c>
-      <c r="D556" t="s">
-        <v>6</v>
-      </c>
-      <c r="E556" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5">
-      <c r="A557">
-        <v>286</v>
-      </c>
-      <c r="B557">
-        <v>119</v>
-      </c>
-      <c r="C557" t="s">
-        <v>5</v>
-      </c>
-      <c r="D557" t="s">
-        <v>6</v>
-      </c>
-      <c r="E557" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5">
-      <c r="A558">
-        <v>287</v>
-      </c>
-      <c r="B558">
-        <v>201</v>
-      </c>
-      <c r="C558" t="s">
-        <v>5</v>
-      </c>
-      <c r="D558" t="s">
-        <v>6</v>
-      </c>
-      <c r="E558" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559">
-        <v>288</v>
-      </c>
-      <c r="B559">
-        <v>90</v>
-      </c>
-      <c r="C559" t="s">
-        <v>5</v>
-      </c>
-      <c r="D559" t="s">
-        <v>6</v>
-      </c>
-      <c r="E559" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
-      <c r="A560">
-        <v>289</v>
-      </c>
-      <c r="B560">
-        <v>112</v>
-      </c>
-      <c r="C560" t="s">
-        <v>5</v>
-      </c>
-      <c r="D560" t="s">
-        <v>6</v>
-      </c>
-      <c r="E560" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="A561">
-        <v>290</v>
-      </c>
-      <c r="B561">
-        <v>107</v>
-      </c>
-      <c r="C561" t="s">
-        <v>5</v>
-      </c>
-      <c r="D561" t="s">
-        <v>6</v>
-      </c>
-      <c r="E561" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5">
-      <c r="A562">
-        <v>291</v>
-      </c>
-      <c r="B562">
-        <v>499</v>
-      </c>
-      <c r="C562" t="s">
-        <v>5</v>
-      </c>
-      <c r="D562" t="s">
-        <v>6</v>
-      </c>
-      <c r="E562" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5">
-      <c r="A563">
-        <v>292</v>
-      </c>
-      <c r="B563">
-        <v>73</v>
-      </c>
-      <c r="C563" t="s">
-        <v>5</v>
-      </c>
-      <c r="D563" t="s">
-        <v>6</v>
-      </c>
-      <c r="E563" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5">
-      <c r="A564">
-        <v>293</v>
-      </c>
-      <c r="B564">
-        <v>93</v>
-      </c>
-      <c r="C564" t="s">
-        <v>5</v>
-      </c>
-      <c r="D564" t="s">
-        <v>6</v>
-      </c>
-      <c r="E564" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5">
-      <c r="A565">
-        <v>294</v>
-      </c>
-      <c r="B565">
-        <v>205</v>
-      </c>
-      <c r="C565" t="s">
-        <v>5</v>
-      </c>
-      <c r="D565" t="s">
-        <v>6</v>
-      </c>
-      <c r="E565" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5">
-      <c r="A566">
-        <v>295</v>
-      </c>
-      <c r="B566">
-        <v>476</v>
-      </c>
-      <c r="C566" t="s">
-        <v>5</v>
-      </c>
-      <c r="D566" t="s">
-        <v>6</v>
-      </c>
-      <c r="E566" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5">
-      <c r="A567">
-        <v>296</v>
-      </c>
-      <c r="B567">
-        <v>137</v>
-      </c>
-      <c r="C567" t="s">
-        <v>5</v>
-      </c>
-      <c r="D567" t="s">
-        <v>6</v>
-      </c>
-      <c r="E567" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5">
-      <c r="A568">
-        <v>297</v>
-      </c>
-      <c r="B568">
-        <v>171</v>
-      </c>
-      <c r="C568" t="s">
-        <v>5</v>
-      </c>
-      <c r="D568" t="s">
-        <v>6</v>
-      </c>
-      <c r="E568" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5">
-      <c r="A569">
-        <v>298</v>
-      </c>
-      <c r="B569">
-        <v>148</v>
-      </c>
-      <c r="C569" t="s">
-        <v>5</v>
-      </c>
-      <c r="D569" t="s">
-        <v>6</v>
-      </c>
-      <c r="E569" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5">
-      <c r="A570">
-        <v>299</v>
-      </c>
-      <c r="B570">
-        <v>201</v>
-      </c>
-      <c r="C570" t="s">
-        <v>5</v>
-      </c>
-      <c r="D570" t="s">
-        <v>6</v>
-      </c>
-      <c r="E570" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5">
-      <c r="A571">
-        <v>300</v>
-      </c>
-      <c r="B571">
-        <v>136</v>
-      </c>
-      <c r="C571" t="s">
-        <v>5</v>
-      </c>
-      <c r="D571" t="s">
-        <v>6</v>
-      </c>
-      <c r="E571" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5">
-      <c r="C572" t="s">
-        <v>5</v>
-      </c>
-      <c r="D572" t="s">
-        <v>6</v>
-      </c>
-      <c r="E572" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="C573" t="s">
-        <v>5</v>
-      </c>
-      <c r="D573" t="s">
-        <v>6</v>
-      </c>
-      <c r="E573" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5">
-      <c r="C574" t="s">
-        <v>5</v>
-      </c>
-      <c r="D574" t="s">
-        <v>6</v>
-      </c>
-      <c r="E574" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5">
-      <c r="C575" t="s">
-        <v>5</v>
-      </c>
-      <c r="D575" t="s">
-        <v>6</v>
-      </c>
-      <c r="E575" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5">
-      <c r="C576" t="s">
-        <v>5</v>
-      </c>
-      <c r="D576" t="s">
-        <v>6</v>
-      </c>
-      <c r="E576" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="577" spans="3:5">
-      <c r="C577" t="s">
-        <v>5</v>
-      </c>
-      <c r="D577" t="s">
-        <v>6</v>
-      </c>
-      <c r="E577" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="578" spans="3:5">
-      <c r="C578" t="s">
-        <v>5</v>
-      </c>
-      <c r="D578" t="s">
-        <v>6</v>
-      </c>
-      <c r="E578" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="579" spans="3:5">
-      <c r="C579" t="s">
-        <v>5</v>
-      </c>
-      <c r="D579" t="s">
-        <v>6</v>
-      </c>
-      <c r="E579" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="580" spans="3:5">
-      <c r="C580" t="s">
-        <v>5</v>
-      </c>
-      <c r="D580" t="s">
-        <v>6</v>
-      </c>
-      <c r="E580" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="581" spans="3:5">
-      <c r="C581" t="s">
-        <v>5</v>
-      </c>
-      <c r="D581" t="s">
-        <v>6</v>
-      </c>
-      <c r="E581" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="582" spans="3:5">
-      <c r="C582" t="s">
-        <v>5</v>
-      </c>
-      <c r="D582" t="s">
-        <v>6</v>
-      </c>
-      <c r="E582" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="583" spans="3:5">
-      <c r="C583" t="s">
-        <v>5</v>
-      </c>
-      <c r="D583" t="s">
-        <v>6</v>
-      </c>
-      <c r="E583" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="584" spans="3:5">
-      <c r="C584" t="s">
-        <v>5</v>
-      </c>
-      <c r="D584" t="s">
-        <v>6</v>
-      </c>
-      <c r="E584" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="585" spans="3:5">
-      <c r="C585" t="s">
-        <v>5</v>
-      </c>
-      <c r="D585" t="s">
-        <v>6</v>
-      </c>
-      <c r="E585" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="586" spans="3:5">
-      <c r="C586" t="s">
-        <v>5</v>
-      </c>
-      <c r="D586" t="s">
-        <v>6</v>
-      </c>
-      <c r="E586" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="587" spans="3:5">
-      <c r="C587" t="s">
-        <v>5</v>
-      </c>
-      <c r="D587" t="s">
-        <v>6</v>
-      </c>
-      <c r="E587" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="588" spans="3:5">
-      <c r="C588" t="s">
-        <v>5</v>
-      </c>
-      <c r="D588" t="s">
-        <v>6</v>
-      </c>
-      <c r="E588" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="589" spans="3:5">
-      <c r="C589" t="s">
-        <v>5</v>
-      </c>
-      <c r="D589" t="s">
-        <v>6</v>
-      </c>
-      <c r="E589" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="590" spans="3:5">
-      <c r="C590" t="s">
-        <v>5</v>
-      </c>
-      <c r="D590" t="s">
-        <v>6</v>
-      </c>
-      <c r="E590" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="591" spans="3:5">
-      <c r="C591" t="s">
-        <v>5</v>
-      </c>
-      <c r="D591" t="s">
-        <v>6</v>
-      </c>
-      <c r="E591" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="592" spans="3:5">
-      <c r="C592" t="s">
-        <v>5</v>
-      </c>
-      <c r="D592" t="s">
-        <v>6</v>
-      </c>
-      <c r="E592" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="593" spans="3:5">
-      <c r="C593" t="s">
-        <v>5</v>
-      </c>
-      <c r="D593" t="s">
-        <v>6</v>
-      </c>
-      <c r="E593" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="594" spans="3:5">
-      <c r="C594" t="s">
-        <v>5</v>
-      </c>
-      <c r="D594" t="s">
-        <v>6</v>
-      </c>
-      <c r="E594" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="595" spans="3:5">
-      <c r="C595" t="s">
-        <v>5</v>
-      </c>
-      <c r="D595" t="s">
-        <v>6</v>
-      </c>
-      <c r="E595" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="596" spans="3:5">
-      <c r="C596" t="s">
-        <v>5</v>
-      </c>
-      <c r="D596" t="s">
-        <v>6</v>
-      </c>
-      <c r="E596" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="597" spans="3:5">
-      <c r="C597" t="s">
-        <v>5</v>
-      </c>
-      <c r="D597" t="s">
-        <v>6</v>
-      </c>
-      <c r="E597" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="598" spans="3:5">
-      <c r="C598" t="s">
-        <v>5</v>
-      </c>
-      <c r="D598" t="s">
-        <v>6</v>
-      </c>
-      <c r="E598" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="599" spans="3:5">
-      <c r="C599" t="s">
-        <v>5</v>
-      </c>
-      <c r="D599" t="s">
-        <v>6</v>
-      </c>
-      <c r="E599" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="600" spans="3:5">
-      <c r="C600" t="s">
-        <v>5</v>
-      </c>
-      <c r="D600" t="s">
-        <v>6</v>
-      </c>
-      <c r="E600" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="601" spans="3:5">
-      <c r="C601" t="s">
-        <v>5</v>
-      </c>
-      <c r="D601" t="s">
-        <v>6</v>
-      </c>
-      <c r="E601" t="s">
         <v>7</v>
       </c>
     </row>
